--- a/main/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
+++ b/main/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T14:38:29+00:00</t>
+    <t>2024-07-11T12:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
+++ b/main/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:41:29+00:00</t>
+    <t>2024-08-13T14:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
+++ b/main/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="506">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:32:33+00:00</t>
+    <t>2024-09-03T11:48:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -329,330 +329,327 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>applications are not required to consider the tags when interpreting the meaning of a resource</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>MedicationStatement.implicitRules</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>--&gt; implementers and/or specification writers should avoid using this element</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>MedicationStatement.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>MedicationStatement.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>MedicationStatement.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:statementSourcing</t>
+  </si>
+  <si>
+    <t>statementSourcing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-history-sources}
+</t>
+  </si>
+  <si>
+    <t>Sourcing de la ligne de traitement</t>
+  </si>
+  <si>
+    <t>Sourcing de la ligne de traitement du Bilan Médicamenteux : nombre de sources ET liste des sources</t>
+  </si>
+  <si>
+    <t>Nombre de sources concordantes pour cette ligne de traitement (quel que soit leur nombre), supérieur à zéro ET la liste de ces sources, au moins une.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>MedicationStatement.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationStatement.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MedicationStatement.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>MedicationStatement.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>MedicationStatement.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>MedicationStatement.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>MedicationStatement.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>MedicationStatement.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>applications are not required to consider the tags when interpreting the meaning of a resource</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>MedicationStatement.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>--&gt; implementers and/or specification writers should avoid using this element</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>MedicationStatement.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>MedicationStatement.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>MedicationStatement.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:statementSourcing</t>
-  </si>
-  <si>
-    <t>statementSourcing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-history-sources}
-</t>
-  </si>
-  <si>
-    <t>Sourcing de la ligne de traitement</t>
-  </si>
-  <si>
-    <t>Sourcing de la ligne de traitement du Bilan Médicamenteux : nombre de sources ET liste des sources</t>
-  </si>
-  <si>
-    <t>Nombre de sources concordantes pour cette ligne de traitement (quel que soit leur nombre), supérieur à zéro ET la liste de ces sources, au moins une.</t>
-  </si>
-  <si>
     <t>MedicationStatement.modifierExtension</t>
   </si>
   <si>
@@ -694,9 +691,6 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>MedicationStatement.basedOn</t>
   </si>
   <si>
@@ -710,14 +704,7 @@
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -808,9 +795,6 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
     <t>MedicationStatement.category</t>
   </si>
   <si>
@@ -818,9 +802,6 @@
   </si>
   <si>
     <t>Indicates where the medication is expected to be consumed or administered.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>A coded concept identifying where the medication included in the MedicationStatement is expected to be consumed or administered.</t>
@@ -887,8 +868,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>MedicationStatement.medication[x].type</t>
@@ -1173,9 +1154,6 @@
     <t>Provides extra information about the medication statement that is not conveyed by the other attributes.</t>
   </si>
   <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
-  </si>
-  <si>
     <t>Event.note</t>
   </si>
   <si>
@@ -1237,9 +1215,6 @@
     <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
   </si>
   <si>
-    <t>32 bit number; for values larger than this, use decimal</t>
-  </si>
-  <si>
     <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
   </si>
   <si>
@@ -1259,9 +1234,6 @@
   </si>
   <si>
     <t>Free text dosage instructions e.g. SIG.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.  Additional information about administration or preparation of the medication should be included as text.</t>
@@ -1496,9 +1468,6 @@
   </si>
   <si>
     <t>Dosage.doseAndRate.type</t>
-  </si>
-  <si>
-    <t>CD</t>
   </si>
   <si>
     <t>RXO-21; RXE-23</t>
@@ -1999,7 +1968,7 @@
     <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="140.73046875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="62.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2446,16 +2415,16 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>19</v>
@@ -2466,10 +2435,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2492,13 +2461,13 @@
         <v>19</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2549,7 +2518,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2567,7 +2536,7 @@
         <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>19</v>
@@ -2578,14 +2547,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2604,16 +2573,16 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2651,19 +2620,19 @@
         <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2672,16 +2641,16 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>19</v>
@@ -2692,10 +2661,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2721,13 +2690,13 @@
         <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2777,7 +2746,7 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2786,16 +2755,16 @@
         <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>19</v>
@@ -2806,10 +2775,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2832,16 +2801,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2891,7 +2860,7 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2900,16 +2869,16 @@
         <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK8" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>19</v>
@@ -2920,10 +2889,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2946,16 +2915,16 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3005,7 +2974,7 @@
         <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -3014,16 +2983,16 @@
         <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>19</v>
@@ -3034,10 +3003,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3060,16 +3029,16 @@
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3119,7 +3088,7 @@
         <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3128,16 +3097,16 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>19</v>
@@ -3148,10 +3117,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3174,16 +3143,16 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3209,31 +3178,31 @@
         <v>19</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3242,30 +3211,30 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3288,19 +3257,19 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>19</v>
@@ -3325,13 +3294,13 @@
         <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>19</v>
@@ -3349,7 +3318,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3358,30 +3327,30 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>152</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3404,19 +3373,19 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>19</v>
@@ -3465,7 +3434,7 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3474,16 +3443,16 @@
         <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>19</v>
@@ -3494,10 +3463,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3520,16 +3489,16 @@
         <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3555,13 +3524,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -3579,7 +3548,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3588,16 +3557,16 @@
         <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>19</v>
@@ -3608,14 +3577,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3634,16 +3603,16 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3693,7 +3662,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3702,16 +3671,16 @@
         <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>19</v>
@@ -3722,14 +3691,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3748,16 +3717,16 @@
         <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3807,7 +3776,7 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3825,7 +3794,7 @@
         <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>19</v>
@@ -3836,14 +3805,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3862,17 +3831,15 @@
         <v>19</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>19</v>
@@ -3909,19 +3876,17 @@
         <v>19</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC17" s="2"/>
+      <c r="AD17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC17" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3930,16 +3895,16 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>19</v>
@@ -3950,13 +3915,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>19</v>
@@ -3978,16 +3943,16 @@
         <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4037,7 +4002,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4046,10 +4011,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>19</v>
@@ -4066,14 +4031,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4092,19 +4057,19 @@
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -4141,19 +4106,19 @@
         <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4162,16 +4127,16 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>19</v>
@@ -4182,10 +4147,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4208,16 +4173,16 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4267,7 +4232,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4276,30 +4241,30 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AM20" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="AN20" t="s" s="2">
-        <v>214</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4322,19 +4287,17 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>19</v>
@@ -4383,7 +4346,7 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4392,16 +4355,16 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>19</v>
@@ -4412,10 +4375,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4438,19 +4401,17 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -4499,7 +4460,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4508,16 +4469,16 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>19</v>
@@ -4528,10 +4489,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4554,16 +4515,16 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4589,13 +4550,13 @@
         <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>19</v>
@@ -4613,7 +4574,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>88</v>
@@ -4622,19 +4583,19 @@
         <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>19</v>
@@ -4642,10 +4603,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4668,16 +4629,16 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4703,13 +4664,13 @@
         <v>19</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>19</v>
@@ -4727,7 +4688,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4736,30 +4697,30 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>250</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4782,17 +4743,15 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -4817,13 +4776,13 @@
         <v>19</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>19</v>
@@ -4841,7 +4800,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4850,30 +4809,30 @@
         <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>250</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4896,19 +4855,19 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -4957,7 +4916,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>88</v>
@@ -4966,19 +4925,19 @@
         <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>19</v>
@@ -4986,10 +4945,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5012,13 +4971,13 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5069,7 +5028,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5087,7 +5046,7 @@
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>19</v>
@@ -5098,14 +5057,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5124,16 +5083,16 @@
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5171,19 +5130,19 @@
         <v>19</v>
       </c>
       <c r="AB28" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC28" t="s" s="2">
+      <c r="AF28" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5192,16 +5151,16 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>19</v>
@@ -5212,10 +5171,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5238,19 +5197,19 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -5299,7 +5258,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5308,16 +5267,16 @@
         <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>19</v>
@@ -5328,10 +5287,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5354,16 +5313,16 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5371,7 +5330,7 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>19</v>
@@ -5389,13 +5348,13 @@
         <v>19</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>19</v>
@@ -5413,7 +5372,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5422,16 +5381,16 @@
         <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>19</v>
@@ -5442,10 +5401,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5468,19 +5427,19 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -5529,7 +5488,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5538,30 +5497,30 @@
         <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>214</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5584,16 +5543,16 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5643,7 +5602,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5652,16 +5611,16 @@
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>19</v>
@@ -5672,10 +5631,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5698,19 +5657,19 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -5759,7 +5718,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>88</v>
@@ -5768,30 +5727,30 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5814,13 +5773,13 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5871,7 +5830,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5889,7 +5848,7 @@
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>19</v>
@@ -5900,14 +5859,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5926,16 +5885,16 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5973,19 +5932,19 @@
         <v>19</v>
       </c>
       <c r="AB35" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5994,16 +5953,16 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>19</v>
@@ -6014,10 +5973,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6040,16 +5999,16 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6099,7 +6058,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6108,16 +6067,16 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>19</v>
@@ -6128,10 +6087,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6154,16 +6113,16 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6171,7 +6130,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>19</v>
@@ -6189,13 +6148,13 @@
         <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
@@ -6213,7 +6172,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6222,16 +6181,16 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>19</v>
@@ -6242,10 +6201,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6268,16 +6227,16 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6327,7 +6286,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6336,30 +6295,30 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>214</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6382,16 +6341,16 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6441,7 +6400,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6450,16 +6409,16 @@
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>19</v>
@@ -6470,10 +6429,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6496,17 +6455,15 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -6555,7 +6512,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6564,16 +6521,16 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>19</v>
@@ -6584,10 +6541,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6610,16 +6567,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6669,7 +6626,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6678,19 +6635,19 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK41" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>19</v>
@@ -6698,10 +6655,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6724,13 +6681,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6781,7 +6738,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6790,19 +6747,19 @@
         <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>19</v>
@@ -6810,10 +6767,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6836,19 +6793,19 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -6897,7 +6854,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6906,19 +6863,19 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>19</v>
@@ -6926,10 +6883,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6952,16 +6909,16 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7011,7 +6968,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7020,16 +6977,16 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>19</v>
@@ -7040,10 +6997,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7066,16 +7023,16 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7101,13 +7058,13 @@
         <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>19</v>
@@ -7125,7 +7082,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7134,30 +7091,30 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>250</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7180,16 +7137,16 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7239,7 +7196,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7248,19 +7205,19 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AK46" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>19</v>
@@ -7268,10 +7225,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7294,17 +7251,15 @@
         <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -7353,7 +7308,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7362,30 +7317,30 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK47" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7408,16 +7363,16 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7467,7 +7422,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7476,16 +7431,16 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>19</v>
@@ -7496,10 +7451,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7522,13 +7477,13 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7579,7 +7534,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7597,7 +7552,7 @@
         <v>19</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>19</v>
@@ -7608,14 +7563,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7634,16 +7589,16 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7681,19 +7636,19 @@
         <v>19</v>
       </c>
       <c r="AB50" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC50" t="s" s="2">
+      <c r="AF50" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7702,16 +7657,16 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>19</v>
@@ -7722,14 +7677,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7748,19 +7703,19 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7809,7 +7764,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7818,16 +7773,16 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>19</v>
@@ -7838,10 +7793,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7864,19 +7819,17 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -7925,7 +7878,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7934,30 +7887,30 @@
         <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7980,19 +7933,17 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -8041,7 +7992,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8050,30 +8001,30 @@
         <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8096,19 +8047,19 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -8133,13 +8084,13 @@
         <v>19</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>19</v>
@@ -8157,7 +8108,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8166,30 +8117,30 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8212,17 +8163,15 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -8271,7 +8220,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8280,30 +8229,30 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8326,19 +8275,19 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -8387,7 +8336,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8396,30 +8345,30 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8442,16 +8391,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8477,13 +8426,13 @@
         <v>19</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>19</v>
@@ -8501,7 +8450,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8510,30 +8459,30 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8556,19 +8505,19 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8593,13 +8542,13 @@
         <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>19</v>
@@ -8617,7 +8566,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8626,30 +8575,30 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8672,19 +8621,17 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -8709,13 +8656,13 @@
         <v>19</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>19</v>
@@ -8733,7 +8680,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8742,30 +8689,30 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8788,19 +8735,19 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -8825,13 +8772,13 @@
         <v>19</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>19</v>
@@ -8849,7 +8796,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8858,30 +8805,30 @@
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8904,13 +8851,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8961,7 +8908,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8970,30 +8917,30 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9016,13 +8963,13 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9073,7 +9020,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9091,7 +9038,7 @@
         <v>19</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>19</v>
@@ -9102,14 +9049,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9128,16 +9075,16 @@
         <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9175,19 +9122,19 @@
         <v>19</v>
       </c>
       <c r="AB63" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE63" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC63" t="s" s="2">
+      <c r="AF63" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9196,16 +9143,16 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>19</v>
@@ -9216,10 +9163,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9242,19 +9189,17 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>19</v>
@@ -9279,13 +9224,13 @@
         <v>19</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>19</v>
@@ -9303,7 +9248,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9312,30 +9257,30 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>473</v>
+        <v>19</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9358,19 +9303,19 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>19</v>
@@ -9419,7 +9364,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9428,30 +9373,30 @@
         <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ65" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9474,19 +9419,19 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>19</v>
@@ -9535,7 +9480,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9544,30 +9489,30 @@
         <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ66" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9590,19 +9535,19 @@
         <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>19</v>
@@ -9651,7 +9596,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9660,30 +9605,30 @@
         <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9706,19 +9651,19 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>19</v>
@@ -9767,7 +9712,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9776,30 +9721,30 @@
         <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9822,19 +9767,19 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>512</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>19</v>
@@ -9883,7 +9828,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9892,22 +9837,22 @@
         <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
+++ b/main/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T11:48:25+00:00</t>
+    <t>2024-09-03T12:38:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
+++ b/main/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T12:38:03+00:00</t>
+    <t>2024-09-18T09:33:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -433,7 +433,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -453,7 +453,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -3931,7 +3931,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>

--- a/main/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
+++ b/main/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T09:33:57+00:00</t>
+    <t>2024-11-13T15:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
